--- a/selen_projectAOS/Tests_AOS.xlsx
+++ b/selen_projectAOS/Tests_AOS.xlsx
@@ -1109,6 +1109,36 @@
           <t>Test Result</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/selen_projectAOS/Tests_AOS.xlsx
+++ b/selen_projectAOS/Tests_AOS.xlsx
@@ -581,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>laptops</t>
+          <t>headphones</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -758,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -1114,6 +1114,11 @@
           <t>V</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>V</t>
@@ -1132,6 +1137,11 @@
       <c r="H26" t="inlineStr">
         <is>
           <t>X</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>V</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
